--- a/charts/template_chart.xlsx
+++ b/charts/template_chart.xlsx
@@ -65,6 +65,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -86,6 +87,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -156,7 +158,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -186,6 +188,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -266,17 +272,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
+      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.31"/>
@@ -350,6 +356,24 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="8" t="n">
+        <f aca="false">B3/$I$2</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <f aca="false">C3/$J$2</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="n">
+        <f aca="false">E3/$I$2</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="n">
+        <f aca="false">F3/$J$2</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
